--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\许太伟\Desktop\fist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F34642-BFB9-4EDE-B7A0-296A1FCD0FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B367C86-482B-4766-908C-26715EDAE164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,13 +344,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -358,6 +360,11 @@
         <v>1111111111</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22222222222</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
